--- a/Bradford_Cloevorlage.xlsx
+++ b/Bradford_Cloevorlage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maren\Documents\GitHub\Biochemie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC8A3FF-E919-4CFC-87C1-BE03A03807C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5A712F-AF79-4C94-8DC1-8D93437AA7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2064,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C71" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F33" sqref="F32:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="P25">
         <f t="shared" ref="P25:P32" si="0">AVERAGE(B29:D29)</f>
-        <v>0.24630000193913779</v>
+        <v>0.24630000193913767</v>
       </c>
       <c r="R25" t="s">
         <v>48</v>
@@ -2274,7 +2274,7 @@
         <v>50</v>
       </c>
       <c r="V25">
-        <f t="shared" ref="V25:V32" si="2">AVERAGE(H29:J29)</f>
+        <f>AVERAGE(H29:J29)</f>
         <v>0.26289999485015869</v>
       </c>
     </row>
@@ -2288,7 +2288,7 @@
         <v>0.24803332984447479</v>
       </c>
       <c r="V26">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="V25:V32" si="2">AVERAGE(H30:J30)</f>
         <v>0.29040000836054486</v>
       </c>
     </row>
@@ -2358,7 +2358,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="4">
-        <v>0.23890000581741333</v>
+        <v>0.238900005817413</v>
       </c>
       <c r="C29" s="4">
         <v>0.25020000338554382</v>
@@ -2636,21 +2636,21 @@
       </c>
       <c r="P35">
         <f>P26-$P$25</f>
-        <v>1.8266667922337859E-2</v>
+        <v>1.826666792233797E-2</v>
       </c>
       <c r="R35" t="s">
         <v>54</v>
       </c>
       <c r="S35">
         <f t="shared" ref="S35:S42" si="3">S25-$P$25</f>
-        <v>-1.1333326498667584E-3</v>
+        <v>-1.1333326498666474E-3</v>
       </c>
       <c r="U35" t="s">
         <v>55</v>
       </c>
       <c r="V35">
         <f t="shared" ref="V35:V42" si="4">V25-$P$25</f>
-        <v>1.6599992911020905E-2</v>
+        <v>1.6599992911021016E-2</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.35">
@@ -2685,30 +2685,30 @@
         <v>0.39340001344680786</v>
       </c>
       <c r="P36">
-        <f t="shared" ref="P35:P41" si="5">P27-$P$25</f>
-        <v>4.5299986998240144E-2</v>
+        <f t="shared" ref="P36:P41" si="5">P27-$P$25</f>
+        <v>4.5299986998240255E-2</v>
       </c>
       <c r="S36">
         <f t="shared" si="3"/>
-        <v>1.7333279053370065E-3</v>
+        <v>1.7333279053371176E-3</v>
       </c>
       <c r="V36">
         <f t="shared" si="4"/>
-        <v>4.4100006421407073E-2</v>
+        <v>4.4100006421407184E-2</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="P37">
         <f t="shared" si="5"/>
-        <v>0.11109999815622965</v>
+        <v>0.11109999815622976</v>
       </c>
       <c r="S37">
         <f t="shared" si="3"/>
-        <v>3.0333300431569232E-3</v>
+        <v>3.0333300431570343E-3</v>
       </c>
       <c r="V37">
         <f t="shared" si="4"/>
-        <v>0.16913333535194394</v>
+        <v>0.16913333535194405</v>
       </c>
     </row>
     <row r="38" spans="1:22" s="15" customFormat="1" x14ac:dyDescent="0.35">
@@ -2724,19 +2724,19 @@
       <c r="O38"/>
       <c r="P38">
         <f t="shared" si="5"/>
-        <v>0.16906665762265524</v>
+        <v>0.16906665762265535</v>
       </c>
       <c r="Q38"/>
       <c r="R38"/>
       <c r="S38">
         <f t="shared" si="3"/>
-        <v>2.5466670592625945E-2</v>
+        <v>2.5466670592626056E-2</v>
       </c>
       <c r="T38"/>
       <c r="U38"/>
       <c r="V38">
         <f t="shared" si="4"/>
-        <v>0.7189666827519734</v>
+        <v>0.71896668275197351</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.35">
@@ -2751,25 +2751,25 @@
       </c>
       <c r="D39">
         <f>_xlfn.STDEV.S(B29:D29)</f>
-        <v>6.411704789319423E-3</v>
+        <v>6.4117047893196156E-3</v>
       </c>
       <c r="P39">
         <f t="shared" si="5"/>
-        <v>0.20246666669845578</v>
+        <v>0.20246666669845589</v>
       </c>
       <c r="R39" t="s">
         <v>44</v>
       </c>
       <c r="S39">
-        <f t="shared" si="3"/>
-        <v>2.2499998410542815E-2</v>
+        <f>S29-$P$25</f>
+        <v>2.2499998410542926E-2</v>
       </c>
       <c r="U39" t="s">
         <v>56</v>
       </c>
       <c r="V39">
         <f t="shared" si="4"/>
-        <v>1.8966664870580047E-2</v>
+        <v>1.8966664870580158E-2</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.35">
@@ -2788,15 +2788,15 @@
       </c>
       <c r="P40">
         <f t="shared" si="5"/>
-        <v>0.30293333530426025</v>
+        <v>0.30293333530426036</v>
       </c>
       <c r="S40">
         <f t="shared" si="3"/>
-        <v>5.7900001605351775E-2</v>
+        <v>5.7900001605351886E-2</v>
       </c>
       <c r="V40">
         <f t="shared" si="4"/>
-        <v>1.7399991552035005E-2</v>
+        <v>1.7399991552035116E-2</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.35">
@@ -2815,15 +2815,15 @@
       </c>
       <c r="P41">
         <f t="shared" si="5"/>
-        <v>0.36326666673024488</v>
+        <v>0.36326666673024499</v>
       </c>
       <c r="S41">
         <f t="shared" si="3"/>
-        <v>0.25010000665982568</v>
+        <v>0.25010000665982579</v>
       </c>
       <c r="V41">
         <f t="shared" si="4"/>
-        <v>1.9633327921231597E-2</v>
+        <v>1.9633327921231708E-2</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.35">
@@ -2842,11 +2842,11 @@
       </c>
       <c r="S42">
         <f t="shared" si="3"/>
-        <v>0.94283332427342736</v>
+        <v>0.94283332427342748</v>
       </c>
       <c r="V42">
         <f t="shared" si="4"/>
-        <v>0.16380000114440915</v>
+        <v>0.16380000114440926</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.35">
@@ -2953,11 +2953,11 @@
       </c>
       <c r="C70" s="13">
         <f>(S35-0.0083)/0.1879</f>
-        <v>-5.0204005587369656E-2</v>
+        <v>-5.0204005587369066E-2</v>
       </c>
       <c r="D70" s="9">
         <f>(V35-J51)/J52</f>
-        <v>4.4172394417354467E-2</v>
+        <v>4.4172394417355064E-2</v>
       </c>
       <c r="E70" t="s">
         <v>55</v>
@@ -2967,79 +2967,79 @@
       </c>
       <c r="I70" s="13">
         <f>C70 *100</f>
-        <v>-5.0204005587369656</v>
+        <v>-5.0204005587369069</v>
       </c>
       <c r="J70" s="18">
         <f>D70 *100</f>
-        <v>4.4172394417354468</v>
+        <v>4.4172394417355063</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C71" s="13">
         <f>(S36-J51)/J52</f>
-        <v>-3.4947696086551322E-2</v>
+        <v>-3.4947696086550732E-2</v>
       </c>
       <c r="D71" s="12">
         <f>(V36-J51)/J52</f>
-        <v>0.19052691017246975</v>
+        <v>0.19052691017247037</v>
       </c>
       <c r="I71" s="13">
         <f>C71 *50</f>
-        <v>-1.7473848043275662</v>
+        <v>-1.7473848043275366</v>
       </c>
       <c r="J71" s="19">
         <f>D71 * 50</f>
-        <v>9.5263455086234874</v>
+        <v>9.5263455086235176</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C72" s="13">
         <f>(S37-J51)/J52</f>
-        <v>-2.8029110999697054E-2</v>
+        <v>-2.8029110999696464E-2</v>
       </c>
       <c r="D72" s="12">
         <f>(V37-J51)/J52</f>
-        <v>0.8559517581263647</v>
+        <v>0.85595175812636526</v>
       </c>
       <c r="F72" s="12" t="s">
         <v>68</v>
       </c>
       <c r="G72" s="12">
         <f>AVERAGE(J70:J73)</f>
-        <v>6.5713140612611181</v>
+        <v>6.571314061261142</v>
       </c>
       <c r="I72" s="13">
         <f>C72 *10</f>
-        <v>-0.28029110999697054</v>
+        <v>-0.28029110999696466</v>
       </c>
       <c r="J72" s="18">
         <f>D72 *10</f>
-        <v>8.5595175812636466</v>
+        <v>8.5595175812636519</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C73" s="13">
         <f>(S38-J51)/J52</f>
-        <v>9.1360673723395111E-2</v>
+        <v>9.1360673723395708E-2</v>
       </c>
       <c r="D73" s="9">
         <f>(V38-J51)/J52</f>
-        <v>3.7821537134218914</v>
+        <v>3.7821537134218919</v>
       </c>
       <c r="F73" s="12" t="s">
         <v>69</v>
       </c>
       <c r="G73" s="12">
         <f>_xlfn.STDEV.S(J70:J73)</f>
-        <v>2.8927851057584788</v>
+        <v>2.8927851057584757</v>
       </c>
       <c r="I73" s="17">
         <f>C73</f>
-        <v>9.1360673723395111E-2</v>
+        <v>9.1360673723395708E-2</v>
       </c>
       <c r="J73" s="18">
         <f>D73</f>
-        <v>3.7821537134218914</v>
+        <v>3.7821537134218919</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.35">
@@ -3048,11 +3048,11 @@
       </c>
       <c r="C74" s="6">
         <f>(S39-J51)/J52</f>
-        <v>7.5572104366912266E-2</v>
+        <v>7.5572104366912848E-2</v>
       </c>
       <c r="D74" s="11">
         <f>(V39-J51)/J52</f>
-        <v>5.6767774723683058E-2</v>
+        <v>5.6767774723683648E-2</v>
       </c>
       <c r="E74" t="s">
         <v>56</v>
@@ -3062,76 +3062,76 @@
       </c>
       <c r="G74" s="12">
         <f xml:space="preserve"> G72 + G73</f>
-        <v>9.4640991670195973</v>
+        <v>9.4640991670196186</v>
       </c>
       <c r="I74" s="6">
-        <f t="shared" ref="I71:I77" si="7">C74 *100</f>
-        <v>7.5572104366912267</v>
+        <f t="shared" ref="I74" si="7">C74 *100</f>
+        <v>7.5572104366912844</v>
       </c>
       <c r="J74" s="11">
-        <f t="shared" ref="J71:J77" si="8">D74 *100</f>
-        <v>5.6767774723683058</v>
+        <f t="shared" ref="J74" si="8">D74 *100</f>
+        <v>5.6767774723683644</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C75" s="6">
         <f>(S40-J51)/J52</f>
-        <v>0.26397020545690136</v>
+        <v>0.26397020545690197</v>
       </c>
       <c r="D75" s="11">
         <f>(V40-J51)/J52</f>
-        <v>4.8429971006040469E-2</v>
+        <v>4.8429971006041059E-2</v>
       </c>
       <c r="F75" s="12" t="s">
         <v>72</v>
       </c>
       <c r="G75" s="12">
         <f xml:space="preserve"> G72 - G73</f>
-        <v>3.6785289555026393</v>
+        <v>3.6785289555026663</v>
       </c>
       <c r="I75" s="6">
         <f>C75 *50</f>
-        <v>13.198510272845068</v>
+        <v>13.198510272845098</v>
       </c>
       <c r="J75" s="8">
         <f>D75 *50</f>
-        <v>2.4214985503020237</v>
+        <v>2.421498550302053</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C76" s="14">
         <f>(S41-J51)/J52</f>
-        <v>1.2868547453955597</v>
+        <v>1.2868547453955603</v>
       </c>
       <c r="D76" s="11">
         <f>(V41-J51)/J52</f>
-        <v>6.0315741996974967E-2</v>
+        <v>6.0315741996975557E-2</v>
       </c>
       <c r="I76" s="6">
         <f>C76 *10</f>
-        <v>12.868547453955596</v>
+        <v>12.868547453955603</v>
       </c>
       <c r="J76" s="8">
         <f>D76 *10</f>
-        <v>0.6031574199697497</v>
+        <v>0.60315741996975558</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C77" s="14">
         <f>(S42-J51)/J52</f>
-        <v>4.9735674522268614</v>
+        <v>4.9735674522268623</v>
       </c>
       <c r="D77" s="8">
         <f>(V42-J51)/J52</f>
-        <v>0.82756786133267235</v>
+        <v>0.82756786133267302</v>
       </c>
       <c r="I77" s="14">
         <f>C77</f>
-        <v>4.9735674522268614</v>
+        <v>4.9735674522268623</v>
       </c>
       <c r="J77" s="8">
         <f>D77</f>
-        <v>0.82756786133267235</v>
+        <v>0.82756786133267302</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.35">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="C79" s="17">
         <f>C73</f>
-        <v>9.1360673723395111E-2</v>
+        <v>9.1360673723395708E-2</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>54</v>
@@ -3152,7 +3152,7 @@
     <row r="80" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C80" s="6">
         <f>AVERAGE(I74:I76)</f>
-        <v>11.208089387830631</v>
+        <v>11.208089387830663</v>
       </c>
       <c r="D80" t="s">
         <v>44</v>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="G80" s="8">
         <f>AVERAGE(J74:J77)</f>
-        <v>2.382250325993188</v>
+        <v>2.3822503259932115</v>
       </c>
       <c r="H80" s="8"/>
       <c r="J80" s="6" t="s">
@@ -3170,14 +3170,14 @@
       </c>
       <c r="K80" s="6">
         <f>AVERAGE(I74:I77)</f>
-        <v>9.6494589039296876</v>
+        <v>9.6494589039297125</v>
       </c>
       <c r="L80" s="6"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C81" s="12">
         <f>AVERAGE(J70,J72,J73)</f>
-        <v>5.5863035788069952</v>
+        <v>5.5863035788070166</v>
       </c>
       <c r="D81" t="s">
         <v>55</v>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="G81" s="8">
         <f>_xlfn.STDEV.S(J74:J77)</f>
-        <v>2.3407732821655176</v>
+        <v>2.3407732821655438</v>
       </c>
       <c r="H81" s="8"/>
       <c r="J81" s="6" t="s">
@@ -3202,7 +3202,7 @@
     <row r="82" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C82" s="8">
         <f>AVERAGE(J75:J77)</f>
-        <v>1.2840746105348153</v>
+        <v>1.2840746105348273</v>
       </c>
       <c r="D82" t="s">
         <v>56</v>
@@ -3212,22 +3212,22 @@
       </c>
       <c r="G82" s="8">
         <f xml:space="preserve"> G80 - G81</f>
-        <v>4.1477043827670368E-2</v>
+        <v>4.1477043827667703E-2</v>
       </c>
       <c r="H82" s="8">
         <f xml:space="preserve"> G80 + G81</f>
-        <v>4.7230236081587051</v>
+        <v>4.7230236081587549</v>
       </c>
       <c r="J82" s="6" t="s">
         <v>70</v>
       </c>
       <c r="K82" s="6">
         <f xml:space="preserve"> K80 + K81</f>
-        <v>13.699140423460051</v>
+        <v>13.699140423460076</v>
       </c>
       <c r="L82" s="6">
         <f>K80 -K81</f>
-        <v>5.5997773843993244</v>
+        <v>5.5997773843993492</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.35">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="C84">
         <f>C82/C81</f>
-        <v>0.2298612297774624</v>
+        <v>0.22986122977746368</v>
       </c>
       <c r="E84" t="s">
         <v>64</v>
@@ -3256,7 +3256,7 @@
     <row r="89" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C89" s="6">
         <f>60*C82/C80</f>
-        <v>6.8740062615615143</v>
+        <v>6.8740062615615596</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>44</v>
@@ -3265,7 +3265,7 @@
     <row r="90" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C90" s="7">
         <f>60*C82/C81</f>
-        <v>13.791673786647744</v>
+        <v>13.791673786647822</v>
       </c>
       <c r="D90" s="7" t="s">
         <v>55</v>
